--- a/biology/Botanique/Cestrum_nocturnum/Cestrum_nocturnum.xlsx
+++ b/biology/Botanique/Cestrum_nocturnum/Cestrum_nocturnum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cestrum nocturnum, appelé courammment jasmin de nuit, galant de nuit, cestreau nocturne, dame de nuit, reine de nuit ou jasmin bâtard, est une espèce de solanacées du genre Cestrum, originaire des Antilles et d'Amérique centrale. Cette plante arbustive est abondamment cultivée dans les régions subtropicales pour le parfum très intense de ses fleurs, qui ne s'ouvrent que durant la nuit.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ligneux à feuilles persistantes pouvant atteindre environ 4 mètres de haut. Ses feuilles sont simples, lancéolées de 6 à 20 cm de long et de 2 à 4.5 cm de large, lisses et luisantes; leur limbe est à bord uni. Les fleurs sont vert pâle à blanches et se composent d'une corolle fine et allongée de 2 à 2.5 cm de long, terminée en 5 lobes à bouts pointus leur diamètre étant d'environ 10 à 13 mm lorsqu'ils sont ouverts, durant la nuit. Les fleurs sont produites en inflorescences cymeuses et sont fortement parfumées. Elles répandent leur parfum durant la nuit uniquement. Le fruit est une baie blanche toxique. Il existe une variété de C.  nocturnum à fleurs jaunes.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles s'est largement naturalisée dans les régions tropicales et subtropicales du monde entier, notamment en Australie, en Chine méridionale, au sud des États-Unis.
 </t>
@@ -573,7 +589,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cestrum nocturnum est connu, à travers le monde, sous de nombreux noms vernaculaires : 
 Dans le monde francophone : jasmin de nuit, galant de nuit, cestreau nocturne, dame de nuit, reine de nuit, jasmin bâtard(île de La Réunion)
@@ -610,10 +628,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Précautions
-Toutes les parties de la plante sont hautement toxiques. Elle est classée dans certains pays comme plante envahissante.
-Culture
-Le jasmin de nuit se cultive de préférence sur un sol humide, léger et sablonneux à pH neutre compris entre 6.6 et 7.5. La plante est rustique jusqu'à la zone de rusticité 8. Une fois installée elle est difficile à éradiquer.
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de la plante sont hautement toxiques. Elle est classée dans certains pays comme plante envahissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cestrum_nocturnum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cestrum_nocturnum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jasmin de nuit se cultive de préférence sur un sol humide, léger et sablonneux à pH neutre compris entre 6.6 et 7.5. La plante est rustique jusqu'à la zone de rusticité 8. Une fois installée elle est difficile à éradiquer.
 </t>
         </is>
       </c>
